--- a/SceneServer/tools/Xlsx/kx_map.xlsx
+++ b/SceneServer/tools/Xlsx/kx_map.xlsx
@@ -4,21 +4,44 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="14745"/>
+    <workbookView windowWidth="31860" windowHeight="13860"/>
   </bookViews>
   <sheets>
     <sheet name="kx_quyudingyi" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">kx_quyudingyi!$A$4:$O$132</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">kx_quyudingyi!$A$4:$O$131</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Administrator</author>
+  </authors>
+  <commentList>
+    <comment ref="K4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">如果属于副本，必须填写场景id
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="174">
   <si>
     <t>idx</t>
   </si>
@@ -50,7 +73,7 @@
     <t>is_copy</t>
   </si>
   <si>
-    <t>is_trigger</t>
+    <t>scene_id</t>
   </si>
   <si>
     <t>parent_id</t>
@@ -104,10 +127,10 @@
     <t>背景音乐_黑夜</t>
   </si>
   <si>
-    <t>是否副本</t>
-  </si>
-  <si>
-    <t>进入或离开场景触发</t>
+    <t>是否副本地图</t>
+  </si>
+  <si>
+    <t>副本场景id</t>
   </si>
   <si>
     <t>序号</t>
@@ -464,13 +487,10 @@
     <t>行会场地</t>
   </si>
   <si>
-    <t>卡尔斯艾路城</t>
-  </si>
-  <si>
-    <t>副本五1去2</t>
-  </si>
-  <si>
-    <t>副本五2去3</t>
+    <t>卡尔斯艾路城_4</t>
+  </si>
+  <si>
+    <t>卡尔斯艾路城_5</t>
   </si>
   <si>
     <t>攻城前厅</t>
@@ -555,7 +575,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -706,6 +726,11 @@
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1487,12 +1512,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P132"/>
+  <dimension ref="A1:P131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="K12" sqref="K12"/>
+      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
@@ -1505,9 +1530,8 @@
     <col min="6" max="6" width="7.25" style="1" customWidth="1"/>
     <col min="7" max="7" width="12.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="24.25" style="1" customWidth="1"/>
-    <col min="9" max="9" width="21" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="22.875" style="1" customWidth="1"/>
+    <col min="9" max="10" width="21" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.875" style="1" customWidth="1"/>
     <col min="13" max="13" width="24.125" style="1" customWidth="1"/>
     <col min="14" max="14" width="16.625" style="1" customWidth="1"/>
@@ -1598,7 +1622,7 @@
         <v>18</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>16</v>
@@ -5117,8 +5141,12 @@
         <v>61</v>
       </c>
       <c r="I104" s="2"/>
-      <c r="J104" s="2"/>
-      <c r="K104" s="2"/>
+      <c r="J104" s="2">
+        <v>1</v>
+      </c>
+      <c r="K104" s="2">
+        <v>2</v>
+      </c>
       <c r="L104" s="2"/>
     </row>
     <row r="105" customHeight="1" spans="1:12">
@@ -5129,23 +5157,27 @@
         <v>149</v>
       </c>
       <c r="C105" s="2">
-        <v>26404</v>
+        <v>26040</v>
       </c>
       <c r="D105" s="2">
-        <v>25154</v>
+        <v>24910</v>
       </c>
       <c r="E105" s="2">
-        <v>26406</v>
+        <v>26985</v>
       </c>
       <c r="F105" s="2">
-        <v>25156</v>
+        <v>26000</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>61</v>
       </c>
       <c r="I105" s="2"/>
-      <c r="J105" s="2"/>
-      <c r="K105" s="2"/>
+      <c r="J105" s="2">
+        <v>1</v>
+      </c>
+      <c r="K105" s="2">
+        <v>3</v>
+      </c>
       <c r="L105" s="2"/>
     </row>
     <row r="106" customHeight="1" spans="1:12">
@@ -5156,16 +5188,16 @@
         <v>150</v>
       </c>
       <c r="C106" s="2">
-        <v>26209</v>
+        <v>21140</v>
       </c>
       <c r="D106" s="2">
-        <v>25437</v>
+        <v>30858</v>
       </c>
       <c r="E106" s="2">
-        <v>26211</v>
+        <v>21190</v>
       </c>
       <c r="F106" s="2">
-        <v>25439</v>
+        <v>30950</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>61</v>
@@ -5173,26 +5205,28 @@
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
-      <c r="L106" s="2"/>
+      <c r="L106" s="2">
+        <v>115</v>
+      </c>
     </row>
     <row r="107" customHeight="1" spans="1:12">
       <c r="A107" s="1">
         <v>103</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>151</v>
+        <v>37</v>
       </c>
       <c r="C107" s="2">
-        <v>21140</v>
+        <v>1</v>
       </c>
       <c r="D107" s="2">
-        <v>30858</v>
+        <v>1</v>
       </c>
       <c r="E107" s="2">
-        <v>21190</v>
+        <v>50000</v>
       </c>
       <c r="F107" s="2">
-        <v>30950</v>
+        <v>50000</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>61</v>
@@ -5201,7 +5235,7 @@
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2">
-        <v>115</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" customHeight="1" spans="1:12">
@@ -5209,22 +5243,22 @@
         <v>104</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>37</v>
+        <v>151</v>
       </c>
       <c r="C108" s="2">
-        <v>1</v>
+        <v>22630</v>
       </c>
       <c r="D108" s="2">
-        <v>1</v>
+        <v>34460</v>
       </c>
       <c r="E108" s="2">
-        <v>50000</v>
+        <v>22680</v>
       </c>
       <c r="F108" s="2">
-        <v>50000</v>
+        <v>34490</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
@@ -5241,26 +5275,24 @@
         <v>152</v>
       </c>
       <c r="C109" s="2">
-        <v>22630</v>
+        <v>22109</v>
       </c>
       <c r="D109" s="2">
-        <v>34460</v>
+        <v>37359</v>
       </c>
       <c r="E109" s="2">
-        <v>22680</v>
+        <v>22710</v>
       </c>
       <c r="F109" s="2">
-        <v>34490</v>
+        <v>37700</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
       <c r="K109" s="2"/>
-      <c r="L109" s="2">
-        <v>2</v>
-      </c>
+      <c r="L109" s="2"/>
     </row>
     <row r="110" customHeight="1" spans="1:12">
       <c r="A110" s="1">
@@ -5270,19 +5302,19 @@
         <v>153</v>
       </c>
       <c r="C110" s="2">
-        <v>22109</v>
+        <v>22769</v>
       </c>
       <c r="D110" s="2">
-        <v>37359</v>
+        <v>28633</v>
       </c>
       <c r="E110" s="2">
-        <v>22710</v>
+        <v>23064</v>
       </c>
       <c r="F110" s="2">
-        <v>37700</v>
+        <v>28895</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
@@ -5297,24 +5329,26 @@
         <v>154</v>
       </c>
       <c r="C111" s="2">
-        <v>22769</v>
+        <v>23059</v>
       </c>
       <c r="D111" s="2">
-        <v>28633</v>
+        <v>28631</v>
       </c>
       <c r="E111" s="2">
-        <v>23064</v>
+        <v>23400</v>
       </c>
       <c r="F111" s="2">
-        <v>28895</v>
+        <v>28972</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
-      <c r="L111" s="2"/>
+      <c r="L111" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="112" customHeight="1" spans="1:12">
       <c r="A112" s="1">
@@ -5324,26 +5358,22 @@
         <v>155</v>
       </c>
       <c r="C112" s="2">
-        <v>23059</v>
+        <v>22360</v>
       </c>
       <c r="D112" s="2">
-        <v>28631</v>
+        <v>37534</v>
       </c>
       <c r="E112" s="2">
-        <v>23400</v>
+        <v>22362</v>
       </c>
       <c r="F112" s="2">
-        <v>28972</v>
-      </c>
-      <c r="H112" s="2" t="s">
-        <v>42</v>
-      </c>
+        <v>37536</v>
+      </c>
+      <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
-      <c r="L112" s="2">
-        <v>8</v>
-      </c>
+      <c r="L112" s="2"/>
     </row>
     <row r="113" customHeight="1" spans="1:12">
       <c r="A113" s="1">
@@ -5353,16 +5383,16 @@
         <v>156</v>
       </c>
       <c r="C113" s="2">
-        <v>22360</v>
+        <v>22493</v>
       </c>
       <c r="D113" s="2">
-        <v>37534</v>
+        <v>37584</v>
       </c>
       <c r="E113" s="2">
-        <v>22362</v>
+        <v>22496</v>
       </c>
       <c r="F113" s="2">
-        <v>37536</v>
+        <v>37586</v>
       </c>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
@@ -5378,18 +5408,20 @@
         <v>157</v>
       </c>
       <c r="C114" s="2">
-        <v>22493</v>
+        <v>23474</v>
       </c>
       <c r="D114" s="2">
-        <v>37584</v>
+        <v>29980</v>
       </c>
       <c r="E114" s="2">
-        <v>22496</v>
+        <v>24011</v>
       </c>
       <c r="F114" s="2">
-        <v>37586</v>
-      </c>
-      <c r="H114" s="2"/>
+        <v>30454</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>61</v>
+      </c>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
       <c r="K114" s="2"/>
@@ -5403,16 +5435,16 @@
         <v>158</v>
       </c>
       <c r="C115" s="2">
-        <v>23474</v>
+        <v>26673</v>
       </c>
       <c r="D115" s="2">
-        <v>29980</v>
+        <v>35789</v>
       </c>
       <c r="E115" s="2">
-        <v>24011</v>
+        <v>27237</v>
       </c>
       <c r="F115" s="2">
-        <v>30454</v>
+        <v>36361</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>61</v>
@@ -5430,16 +5462,16 @@
         <v>159</v>
       </c>
       <c r="C116" s="2">
-        <v>26673</v>
+        <v>27093</v>
       </c>
       <c r="D116" s="2">
-        <v>35789</v>
+        <v>34547</v>
       </c>
       <c r="E116" s="2">
-        <v>27237</v>
+        <v>27098</v>
       </c>
       <c r="F116" s="2">
-        <v>36361</v>
+        <v>34551</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>61</v>
@@ -5457,16 +5489,16 @@
         <v>160</v>
       </c>
       <c r="C117" s="2">
-        <v>27093</v>
+        <v>27152</v>
       </c>
       <c r="D117" s="2">
-        <v>34547</v>
+        <v>34566</v>
       </c>
       <c r="E117" s="2">
-        <v>27098</v>
+        <v>27156</v>
       </c>
       <c r="F117" s="2">
-        <v>34551</v>
+        <v>34570</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>61</v>
@@ -5484,16 +5516,16 @@
         <v>161</v>
       </c>
       <c r="C118" s="2">
-        <v>27152</v>
+        <v>27123</v>
       </c>
       <c r="D118" s="2">
-        <v>34566</v>
+        <v>34619</v>
       </c>
       <c r="E118" s="2">
-        <v>27156</v>
+        <v>27127</v>
       </c>
       <c r="F118" s="2">
-        <v>34570</v>
+        <v>34623</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>61</v>
@@ -5511,16 +5543,16 @@
         <v>162</v>
       </c>
       <c r="C119" s="2">
-        <v>27123</v>
+        <v>21500</v>
       </c>
       <c r="D119" s="2">
-        <v>34619</v>
+        <v>26220</v>
       </c>
       <c r="E119" s="2">
-        <v>27127</v>
+        <v>21860</v>
       </c>
       <c r="F119" s="2">
-        <v>34623</v>
+        <v>26510</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>61</v>
@@ -5528,7 +5560,9 @@
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
-      <c r="L119" s="2"/>
+      <c r="L119" s="2">
+        <v>2</v>
+      </c>
     </row>
     <row r="120" customHeight="1" spans="1:12">
       <c r="A120" s="1">
@@ -5538,16 +5572,16 @@
         <v>163</v>
       </c>
       <c r="C120" s="2">
-        <v>21500</v>
+        <v>22115</v>
       </c>
       <c r="D120" s="2">
-        <v>26220</v>
+        <v>29920</v>
       </c>
       <c r="E120" s="2">
-        <v>21860</v>
+        <v>22750</v>
       </c>
       <c r="F120" s="2">
-        <v>26510</v>
+        <v>30555</v>
       </c>
       <c r="H120" s="2" t="s">
         <v>61</v>
@@ -5555,9 +5589,7 @@
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
       <c r="K120" s="2"/>
-      <c r="L120" s="2">
-        <v>2</v>
-      </c>
+      <c r="L120" s="2"/>
     </row>
     <row r="121" customHeight="1" spans="1:12">
       <c r="A121" s="1">
@@ -5567,16 +5599,16 @@
         <v>164</v>
       </c>
       <c r="C121" s="2">
-        <v>22115</v>
+        <v>22228</v>
       </c>
       <c r="D121" s="2">
-        <v>29920</v>
+        <v>30130</v>
       </c>
       <c r="E121" s="2">
-        <v>22750</v>
+        <v>22461</v>
       </c>
       <c r="F121" s="2">
-        <v>30555</v>
+        <v>30352</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>61</v>
@@ -5591,19 +5623,19 @@
         <v>118</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>165</v>
+        <v>138</v>
       </c>
       <c r="C122" s="2">
-        <v>22228</v>
+        <v>1</v>
       </c>
       <c r="D122" s="2">
-        <v>30130</v>
+        <v>1</v>
       </c>
       <c r="E122" s="2">
-        <v>22461</v>
+        <v>50000</v>
       </c>
       <c r="F122" s="2">
-        <v>30352</v>
+        <v>50000</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>61</v>
@@ -5618,22 +5650,22 @@
         <v>119</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="C123" s="2">
-        <v>1</v>
+        <v>22758</v>
       </c>
       <c r="D123" s="2">
-        <v>1</v>
+        <v>37063</v>
       </c>
       <c r="E123" s="2">
-        <v>50000</v>
+        <v>23051</v>
       </c>
       <c r="F123" s="2">
-        <v>50000</v>
+        <v>37356</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
@@ -5648,16 +5680,16 @@
         <v>166</v>
       </c>
       <c r="C124" s="2">
-        <v>22758</v>
+        <v>22895</v>
       </c>
       <c r="D124" s="2">
-        <v>37063</v>
+        <v>37105</v>
       </c>
       <c r="E124" s="2">
-        <v>23051</v>
+        <v>22897</v>
       </c>
       <c r="F124" s="2">
-        <v>37356</v>
+        <v>37107</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>45</v>
@@ -5665,7 +5697,9 @@
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
       <c r="K124" s="2"/>
-      <c r="L124" s="2"/>
+      <c r="L124" s="2">
+        <v>131</v>
+      </c>
     </row>
     <row r="125" customHeight="1" spans="1:12">
       <c r="A125" s="1">
@@ -5675,16 +5709,16 @@
         <v>167</v>
       </c>
       <c r="C125" s="2">
-        <v>22895</v>
+        <v>22820</v>
       </c>
       <c r="D125" s="2">
-        <v>37105</v>
+        <v>37294</v>
       </c>
       <c r="E125" s="2">
-        <v>22897</v>
+        <v>22880</v>
       </c>
       <c r="F125" s="2">
-        <v>37107</v>
+        <v>37362</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>45</v>
@@ -5704,16 +5738,16 @@
         <v>168</v>
       </c>
       <c r="C126" s="2">
-        <v>22820</v>
+        <v>22889</v>
       </c>
       <c r="D126" s="2">
-        <v>37294</v>
+        <v>37310</v>
       </c>
       <c r="E126" s="2">
-        <v>22880</v>
+        <v>22933</v>
       </c>
       <c r="F126" s="2">
-        <v>37362</v>
+        <v>37352</v>
       </c>
       <c r="H126" s="2" t="s">
         <v>45</v>
@@ -5733,16 +5767,16 @@
         <v>169</v>
       </c>
       <c r="C127" s="2">
-        <v>22889</v>
+        <v>22958</v>
       </c>
       <c r="D127" s="2">
-        <v>37310</v>
+        <v>37295</v>
       </c>
       <c r="E127" s="2">
-        <v>22933</v>
+        <v>23038</v>
       </c>
       <c r="F127" s="2">
-        <v>37352</v>
+        <v>37355</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>45</v>
@@ -5762,16 +5796,16 @@
         <v>170</v>
       </c>
       <c r="C128" s="2">
-        <v>22958</v>
+        <v>22784</v>
       </c>
       <c r="D128" s="2">
-        <v>37295</v>
+        <v>37088</v>
       </c>
       <c r="E128" s="2">
-        <v>23038</v>
+        <v>22842</v>
       </c>
       <c r="F128" s="2">
-        <v>37355</v>
+        <v>37135</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>45</v>
@@ -5791,16 +5825,16 @@
         <v>171</v>
       </c>
       <c r="C129" s="2">
-        <v>22784</v>
+        <v>22875</v>
       </c>
       <c r="D129" s="2">
-        <v>37088</v>
+        <v>37082</v>
       </c>
       <c r="E129" s="2">
-        <v>22842</v>
+        <v>22965</v>
       </c>
       <c r="F129" s="2">
-        <v>37135</v>
+        <v>37171</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>45</v>
@@ -5820,16 +5854,16 @@
         <v>172</v>
       </c>
       <c r="C130" s="2">
-        <v>22875</v>
+        <v>22934</v>
       </c>
       <c r="D130" s="2">
-        <v>37082</v>
+        <v>37079</v>
       </c>
       <c r="E130" s="2">
-        <v>22965</v>
+        <v>23039</v>
       </c>
       <c r="F130" s="2">
-        <v>37171</v>
+        <v>37180</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>45</v>
@@ -5849,16 +5883,16 @@
         <v>173</v>
       </c>
       <c r="C131" s="2">
-        <v>22934</v>
+        <v>22758</v>
       </c>
       <c r="D131" s="2">
-        <v>37079</v>
+        <v>37201</v>
       </c>
       <c r="E131" s="2">
-        <v>23039</v>
+        <v>22770</v>
       </c>
       <c r="F131" s="2">
-        <v>37180</v>
+        <v>37233</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>45</v>
@@ -5870,38 +5904,9 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132" customHeight="1" spans="1:12">
-      <c r="A132" s="1">
-        <v>128</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C132" s="2">
-        <v>22758</v>
-      </c>
-      <c r="D132" s="2">
-        <v>37201</v>
-      </c>
-      <c r="E132" s="2">
-        <v>22770</v>
-      </c>
-      <c r="F132" s="2">
-        <v>37233</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I132" s="2"/>
-      <c r="J132" s="2"/>
-      <c r="K132" s="2"/>
-      <c r="L132" s="2">
-        <v>131</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A4:O132">
-    <sortState ref="A4:O132">
+  <autoFilter ref="A4:O131">
+    <sortState ref="A4:O131">
       <sortCondition ref="A4"/>
     </sortState>
     <extLst/>
@@ -5909,6 +5914,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/SceneServer/tools/Xlsx/kx_map.xlsx
+++ b/SceneServer/tools/Xlsx/kx_map.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31860" windowHeight="13860"/>
+    <workbookView windowHeight="15300"/>
   </bookViews>
   <sheets>
     <sheet name="kx_quyudingyi" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">kx_quyudingyi!$A$4:$O$131</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">kx_quyudingyi!$A$4:$P$121</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="167">
   <si>
     <t>idx</t>
   </si>
@@ -82,6 +82,9 @@
     <t>mark</t>
   </si>
   <si>
+    <t>ban_login</t>
+  </si>
+  <si>
     <t>exp</t>
   </si>
   <si>
@@ -139,6 +142,9 @@
     <t>是否允许位置登记</t>
   </si>
   <si>
+    <t>禁止在此区域登录</t>
+  </si>
+  <si>
     <t>经验倍率</t>
   </si>
   <si>
@@ -154,348 +160,330 @@
     <t>Ladianes_Day</t>
   </si>
   <si>
+    <t>莱蒂尼斯前村</t>
+  </si>
+  <si>
+    <t>Ladianes_Night</t>
+  </si>
+  <si>
+    <t>10;20;30</t>
+  </si>
+  <si>
+    <t>莱蒂尼斯城10级掉落;莱蒂尼斯城20级掉落;莱蒂尼斯城30级掉落;</t>
+  </si>
+  <si>
+    <t>副本三</t>
+  </si>
+  <si>
+    <t>AbandonedMine3F_Main</t>
+  </si>
+  <si>
+    <t>副本四夜间</t>
+  </si>
+  <si>
+    <t>冰封之地</t>
+  </si>
+  <si>
+    <t>FrozenLand</t>
+  </si>
+  <si>
+    <t>东部区域</t>
+  </si>
+  <si>
+    <t>风暴区</t>
+  </si>
+  <si>
+    <t>NAmb_NephirimDungoen</t>
+  </si>
+  <si>
+    <t>精灵城</t>
+  </si>
+  <si>
+    <t>VerosNewCastle</t>
+  </si>
+  <si>
+    <t>黑暗圣殿</t>
+  </si>
+  <si>
+    <t>DAmb_Cave</t>
+  </si>
+  <si>
+    <t>人族地宫二层</t>
+  </si>
+  <si>
+    <t>蓝色安全地带</t>
+  </si>
+  <si>
+    <t>人族地宫一层</t>
+  </si>
+  <si>
+    <t>光荣岛</t>
+  </si>
+  <si>
+    <t>废弃的荒地</t>
+  </si>
+  <si>
+    <t>情人岛</t>
+  </si>
+  <si>
+    <t>PetLand</t>
+  </si>
+  <si>
+    <t>地牢门口传送至地宫</t>
+  </si>
+  <si>
+    <t>SealedLand</t>
+  </si>
+  <si>
+    <t>精地四到精地三</t>
+  </si>
+  <si>
+    <t>雾都古塔</t>
+  </si>
+  <si>
+    <t>女王洞</t>
+  </si>
+  <si>
+    <t>清澈小屋</t>
+  </si>
+  <si>
+    <t>瓦特岛二</t>
+  </si>
+  <si>
+    <t>瓦特岛一</t>
+  </si>
+  <si>
+    <t>宠物岛</t>
+  </si>
+  <si>
+    <t>精灵地宫六层</t>
+  </si>
+  <si>
+    <t>去海底</t>
+  </si>
+  <si>
+    <t>幽灵城</t>
+  </si>
+  <si>
+    <t>幽灵城-内城</t>
+  </si>
+  <si>
+    <t>玄武岛</t>
+  </si>
+  <si>
+    <t>朱雀岛屿</t>
+  </si>
+  <si>
+    <t>青龙岛屿</t>
+  </si>
+  <si>
+    <t>红色安全地带</t>
+  </si>
+  <si>
+    <t>梦魇之殿</t>
+  </si>
+  <si>
+    <t>麒麟岛屿</t>
+  </si>
+  <si>
+    <t>精灵地宫二层</t>
+  </si>
+  <si>
+    <t>DephirothChamber2_Road</t>
+  </si>
+  <si>
+    <t>紫色安全区域</t>
+  </si>
+  <si>
+    <t>人族圣地</t>
+  </si>
+  <si>
+    <t>人族地宫三层</t>
+  </si>
+  <si>
+    <t>人族地宫未知1</t>
+  </si>
+  <si>
+    <t>人族地宫未知1大厅</t>
+  </si>
+  <si>
+    <t>人族地宫未知2</t>
+  </si>
+  <si>
+    <t>人族地宫未知2大厅</t>
+  </si>
+  <si>
+    <t>人族地宫未知3大厅</t>
+  </si>
+  <si>
+    <t>人族地宫未知3</t>
+  </si>
+  <si>
+    <t>人族地宫BOOS房</t>
+  </si>
+  <si>
+    <t>人族地宫安全屋</t>
+  </si>
+  <si>
+    <t>花园</t>
+  </si>
+  <si>
+    <t>花园通道</t>
+  </si>
+  <si>
+    <t>花园-药园</t>
+  </si>
+  <si>
+    <t>花园-监牢</t>
+  </si>
+  <si>
+    <t>花园-通道</t>
+  </si>
+  <si>
+    <t>花园-地下室</t>
+  </si>
+  <si>
+    <t>花园-教堂</t>
+  </si>
+  <si>
+    <t>花园-中厅</t>
+  </si>
+  <si>
+    <t>花园-食堂</t>
+  </si>
+  <si>
+    <t>花园-礼堂</t>
+  </si>
+  <si>
+    <t>花园-环形通道</t>
+  </si>
+  <si>
+    <t>花园-会客厅</t>
+  </si>
+  <si>
+    <t>足球场</t>
+  </si>
+  <si>
+    <t>神奇的区域</t>
+  </si>
+  <si>
+    <t>瓦特岛三</t>
+  </si>
+  <si>
+    <t>营地</t>
+  </si>
+  <si>
+    <t>BOOS房通道</t>
+  </si>
+  <si>
+    <t>海底去女王</t>
+  </si>
+  <si>
+    <t>精灵地宫一层</t>
+  </si>
+  <si>
+    <t>DephirothChamber2_BossRoom</t>
+  </si>
+  <si>
+    <t>精灵地宫传送间</t>
+  </si>
+  <si>
+    <t>人城争夺战</t>
+  </si>
+  <si>
+    <t>白虎岛屿</t>
+  </si>
+  <si>
+    <t>海底去女王二</t>
+  </si>
+  <si>
+    <t>地宫门口传送至地宫</t>
+  </si>
+  <si>
+    <t>地宫内部传送至门口</t>
+  </si>
+  <si>
+    <t>副本四白天</t>
+  </si>
+  <si>
+    <t>乐园</t>
+  </si>
+  <si>
+    <t>芭蕉洞</t>
+  </si>
+  <si>
+    <t>白天1去2</t>
+  </si>
+  <si>
+    <t>白天出口</t>
+  </si>
+  <si>
+    <t>夜间1去2</t>
+  </si>
+  <si>
+    <t>夜间出口</t>
+  </si>
+  <si>
+    <t>海啸祭坛</t>
+  </si>
+  <si>
+    <t>火焰祭坛</t>
+  </si>
+  <si>
+    <t>迷雾祭坛</t>
+  </si>
+  <si>
+    <t>宁静祭坛</t>
+  </si>
+  <si>
+    <t>攻城大厅</t>
+  </si>
+  <si>
+    <t>大厅</t>
+  </si>
+  <si>
+    <t>莱蒂尼斯</t>
+  </si>
+  <si>
+    <t>萨洛茨</t>
+  </si>
+  <si>
+    <t>封印之地</t>
+  </si>
+  <si>
+    <t>南达利亚东部地区</t>
+  </si>
+  <si>
+    <t>SY_LoveAndLoss</t>
+  </si>
+  <si>
+    <t>莱蒂尼斯地宫</t>
+  </si>
+  <si>
+    <t>SY_ElDorado</t>
+  </si>
+  <si>
+    <t>莱蒂尼斯地宫三层</t>
+  </si>
+  <si>
+    <t>精灵地宫五层</t>
+  </si>
+  <si>
+    <t>行会场地</t>
+  </si>
+  <si>
+    <t>卡尔斯艾路城_4</t>
+  </si>
+  <si>
+    <t>卡尔斯艾路城_5</t>
+  </si>
+  <si>
+    <t>攻城前厅</t>
+  </si>
+  <si>
     <t>莱蒂尼斯城</t>
   </si>
   <si>
-    <t>Ladianes_Night</t>
-  </si>
-  <si>
-    <t>10;20;30</t>
-  </si>
-  <si>
-    <t>莱蒂尼斯城10级掉落;莱蒂尼斯城20级掉落;莱蒂尼斯城30级掉落;</t>
-  </si>
-  <si>
-    <t>副本三</t>
-  </si>
-  <si>
-    <t>AbandonedMine3F_Main</t>
-  </si>
-  <si>
-    <t>副本四夜间</t>
-  </si>
-  <si>
-    <t>冰封之地</t>
-  </si>
-  <si>
-    <t>FrozenLand</t>
-  </si>
-  <si>
-    <t>东部区域</t>
-  </si>
-  <si>
-    <t>风暴区</t>
-  </si>
-  <si>
-    <t>NAmb_NephirimDungoen</t>
-  </si>
-  <si>
-    <t>精灵城</t>
-  </si>
-  <si>
-    <t>VerosNewCastle</t>
-  </si>
-  <si>
-    <t>黑暗圣殿</t>
-  </si>
-  <si>
-    <t>DAmb_Cave</t>
-  </si>
-  <si>
-    <t>人族地宫二层</t>
-  </si>
-  <si>
-    <t>蓝色安全地带</t>
-  </si>
-  <si>
-    <t>人族地宫一层</t>
-  </si>
-  <si>
-    <t>光荣岛</t>
-  </si>
-  <si>
-    <t>废弃的荒地</t>
-  </si>
-  <si>
-    <t>情人岛</t>
-  </si>
-  <si>
-    <t>PetLand</t>
-  </si>
-  <si>
-    <t>地牢门口传送至地宫</t>
-  </si>
-  <si>
-    <t>SealedLand</t>
-  </si>
-  <si>
-    <t>精地四到精地三</t>
-  </si>
-  <si>
-    <t>雾都古塔</t>
-  </si>
-  <si>
-    <t>女王洞</t>
-  </si>
-  <si>
-    <t>清澈小屋</t>
-  </si>
-  <si>
-    <t>瓦特岛二</t>
-  </si>
-  <si>
-    <t>瓦特岛一</t>
-  </si>
-  <si>
-    <t>宠物岛</t>
-  </si>
-  <si>
-    <t>精灵地宫六层</t>
-  </si>
-  <si>
-    <t>去海底</t>
-  </si>
-  <si>
-    <t>幽灵城</t>
-  </si>
-  <si>
-    <t>幽灵城-内城</t>
-  </si>
-  <si>
-    <t>玄武岛</t>
-  </si>
-  <si>
-    <t>朱雀岛屿</t>
-  </si>
-  <si>
-    <t>青龙岛屿</t>
-  </si>
-  <si>
-    <t>红色安全地带</t>
-  </si>
-  <si>
-    <t>梦魇之殿</t>
-  </si>
-  <si>
-    <t>麒麟岛屿</t>
-  </si>
-  <si>
-    <t>精灵地宫二层</t>
-  </si>
-  <si>
-    <t>DephirothChamber2_Road</t>
-  </si>
-  <si>
-    <t>紫色安全区域</t>
-  </si>
-  <si>
-    <t>人族圣地</t>
-  </si>
-  <si>
-    <t>人族地宫三层</t>
-  </si>
-  <si>
-    <t>人族地宫未知1</t>
-  </si>
-  <si>
-    <t>人族地宫未知1大厅</t>
-  </si>
-  <si>
-    <t>人族地宫未知2</t>
-  </si>
-  <si>
-    <t>人族地宫未知2大厅</t>
-  </si>
-  <si>
-    <t>人族地宫未知3大厅</t>
-  </si>
-  <si>
-    <t>人族地宫未知3</t>
-  </si>
-  <si>
-    <t>人族地宫BOOS房</t>
-  </si>
-  <si>
-    <t>人族地宫安全屋</t>
-  </si>
-  <si>
-    <t>花园</t>
-  </si>
-  <si>
-    <t>花园通道</t>
-  </si>
-  <si>
-    <t>花园-药园</t>
-  </si>
-  <si>
-    <t>花园-监牢</t>
-  </si>
-  <si>
-    <t>花园-通道</t>
-  </si>
-  <si>
-    <t>花园-地下室</t>
-  </si>
-  <si>
-    <t>花园-教堂</t>
-  </si>
-  <si>
-    <t>花园-中厅</t>
-  </si>
-  <si>
-    <t>花园-食堂</t>
-  </si>
-  <si>
-    <t>花园-礼堂</t>
-  </si>
-  <si>
-    <t>花园-环形通道</t>
-  </si>
-  <si>
-    <t>花园-会客厅</t>
-  </si>
-  <si>
-    <t>足球场</t>
-  </si>
-  <si>
-    <t>神奇的区域</t>
-  </si>
-  <si>
-    <t>瓦特岛三</t>
-  </si>
-  <si>
-    <t>营地</t>
-  </si>
-  <si>
-    <t>BOOS房通道</t>
-  </si>
-  <si>
-    <t>海底去女王</t>
-  </si>
-  <si>
-    <t>精灵地宫一层</t>
-  </si>
-  <si>
-    <t>DephirothChamber2_BossRoom</t>
-  </si>
-  <si>
-    <t>精灵地宫传送间</t>
-  </si>
-  <si>
-    <t>人城争夺战</t>
-  </si>
-  <si>
-    <t>白虎岛屿</t>
-  </si>
-  <si>
-    <t>海底去女王二</t>
-  </si>
-  <si>
-    <t>地宫门口传送至地宫</t>
-  </si>
-  <si>
-    <t>地宫内部传送至门口</t>
-  </si>
-  <si>
-    <t>副本四白天</t>
-  </si>
-  <si>
-    <t>乐园</t>
-  </si>
-  <si>
-    <t>芭蕉洞</t>
-  </si>
-  <si>
-    <t>攻城入口</t>
-  </si>
-  <si>
-    <t>攻城出口</t>
-  </si>
-  <si>
-    <t>城主入口</t>
-  </si>
-  <si>
-    <t>出去守城</t>
-  </si>
-  <si>
-    <t>守火焰</t>
-  </si>
-  <si>
-    <t>守迷雾</t>
-  </si>
-  <si>
-    <t>守宁静</t>
-  </si>
-  <si>
-    <t>守海啸</t>
-  </si>
-  <si>
-    <t>白天1去2</t>
-  </si>
-  <si>
-    <t>白天出口</t>
-  </si>
-  <si>
-    <t>夜间1去2</t>
-  </si>
-  <si>
-    <t>夜间出口</t>
-  </si>
-  <si>
-    <t>海啸祭坛</t>
-  </si>
-  <si>
-    <t>火焰祭坛</t>
-  </si>
-  <si>
-    <t>迷雾祭坛</t>
-  </si>
-  <si>
-    <t>宁静祭坛</t>
-  </si>
-  <si>
-    <t>攻城大厅</t>
-  </si>
-  <si>
-    <t>莱蒂尼斯</t>
-  </si>
-  <si>
-    <t>萨洛茨</t>
-  </si>
-  <si>
-    <t>封印之地</t>
-  </si>
-  <si>
-    <t>南达利亚东部地区</t>
-  </si>
-  <si>
-    <t>SY_LoveAndLoss</t>
-  </si>
-  <si>
-    <t>莱蒂尼斯地宫</t>
-  </si>
-  <si>
-    <t>SY_ElDorado</t>
-  </si>
-  <si>
-    <t>莱蒂尼斯地宫三层</t>
-  </si>
-  <si>
-    <t>精灵地宫五层</t>
-  </si>
-  <si>
-    <t>行会场地</t>
-  </si>
-  <si>
-    <t>卡尔斯艾路城_4</t>
-  </si>
-  <si>
-    <t>卡尔斯艾路城_5</t>
-  </si>
-  <si>
-    <t>攻城前厅</t>
-  </si>
-  <si>
     <t>出生地保护</t>
   </si>
   <si>
@@ -527,15 +515,6 @@
   </si>
   <si>
     <t>去海底D</t>
-  </si>
-  <si>
-    <t>白帝城</t>
-  </si>
-  <si>
-    <t>宝来坞</t>
-  </si>
-  <si>
-    <t>好来坞</t>
   </si>
   <si>
     <t>副本一</t>
@@ -568,7 +547,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
@@ -581,34 +560,6 @@
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -625,14 +576,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -672,6 +615,21 @@
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -722,7 +680,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -742,55 +721,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,31 +745,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -856,6 +781,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -868,7 +805,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,7 +853,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -916,6 +889,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -933,21 +912,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -980,6 +944,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1038,148 +1017,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1196,52 +1175,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1512,12 +1491,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P131"/>
+  <dimension ref="A1:Q121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="4" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+      <selection pane="bottomLeft" activeCell="M102" sqref="M102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.625" defaultRowHeight="16.5" customHeight="1"/>
@@ -1534,13 +1513,13 @@
     <col min="11" max="11" width="15.25" style="1" customWidth="1"/>
     <col min="12" max="12" width="12.875" style="1" customWidth="1"/>
     <col min="13" max="13" width="24.125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="16.625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="21.125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="54.75" style="1" customWidth="1"/>
-    <col min="17" max="16384" width="15.625" style="1"/>
+    <col min="14" max="15" width="16.625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="54.75" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="15.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:16">
+    <row r="1" customHeight="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1589,113 +1568,122 @@
       <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:16">
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:17">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="D2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="M2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="O2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="P2" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:16">
+      <c r="Q2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:17">
       <c r="A4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M4" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:14">
+        <v>35</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:15">
       <c r="A5" s="1">
         <v>1</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -1713,7 +1701,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1722,16 +1710,16 @@
       <c r="M5" s="1">
         <v>0</v>
       </c>
-      <c r="N5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:16">
+      <c r="O5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:17">
       <c r="A6" s="1">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C6" s="2">
         <v>22757</v>
@@ -1749,7 +1737,7 @@
         <v>1</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1758,22 +1746,22 @@
       <c r="M6" s="1">
         <v>1</v>
       </c>
-      <c r="N6" s="1">
-        <v>1</v>
-      </c>
-      <c r="O6" s="1" t="s">
-        <v>39</v>
+      <c r="O6" s="1">
+        <v>1</v>
       </c>
       <c r="P6" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:14">
+        <v>41</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:15">
       <c r="A7" s="1">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2">
         <v>23511</v>
@@ -1791,7 +1779,7 @@
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1800,16 +1788,16 @@
       <c r="M7" s="1">
         <v>0</v>
       </c>
-      <c r="N7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:14">
+      <c r="O7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:15">
       <c r="A8" s="1">
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2">
         <v>25000</v>
@@ -1827,7 +1815,7 @@
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1836,16 +1824,16 @@
       <c r="M8" s="1">
         <v>1</v>
       </c>
-      <c r="N8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:14">
+      <c r="O8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:15">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C9" s="2">
         <v>20800</v>
@@ -1863,7 +1851,7 @@
         <v>1</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1872,16 +1860,16 @@
       <c r="M9" s="1">
         <v>0</v>
       </c>
-      <c r="N9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:14">
+      <c r="O9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:15">
       <c r="A10" s="1">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C10" s="2">
         <v>24750</v>
@@ -1906,16 +1894,16 @@
       <c r="M10" s="1">
         <v>1</v>
       </c>
-      <c r="N10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:14">
+      <c r="O10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:15">
       <c r="A11" s="1">
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C11" s="2">
         <v>21668</v>
@@ -1933,27 +1921,25 @@
         <v>1</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
       <c r="K11" s="2"/>
-      <c r="L11" s="2">
-        <v>8</v>
-      </c>
+      <c r="L11" s="2"/>
       <c r="M11" s="1">
         <v>0</v>
       </c>
-      <c r="N11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:14">
+      <c r="O11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:15">
       <c r="A12" s="1">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C12" s="2">
         <v>20800</v>
@@ -1971,27 +1957,25 @@
         <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
       <c r="K12" s="2"/>
-      <c r="L12" s="2">
-        <v>0</v>
-      </c>
+      <c r="L12" s="2"/>
       <c r="M12" s="1">
         <v>0</v>
       </c>
-      <c r="N12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:14">
+      <c r="O12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:15">
       <c r="A13" s="1">
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C13" s="2">
         <v>21085</v>
@@ -2009,27 +1993,25 @@
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
-      <c r="L13" s="2">
-        <v>2</v>
-      </c>
+      <c r="L13" s="2"/>
       <c r="M13" s="1">
         <v>1</v>
       </c>
-      <c r="N13" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:14">
+      <c r="O13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:15">
       <c r="A14" s="1">
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C14" s="2">
         <v>20865</v>
@@ -2047,27 +2029,25 @@
         <v>1</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
-      <c r="L14" s="2">
-        <v>2</v>
-      </c>
+      <c r="L14" s="2"/>
       <c r="M14" s="1">
         <v>0</v>
       </c>
-      <c r="N14" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:14">
+      <c r="O14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:15">
       <c r="A15" s="1">
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C15" s="2">
         <v>21930</v>
@@ -2085,27 +2065,25 @@
         <v>1</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
-      <c r="L15" s="2">
-        <v>2</v>
-      </c>
+      <c r="L15" s="2"/>
       <c r="M15" s="1">
         <v>1</v>
       </c>
-      <c r="N15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:14">
+      <c r="O15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:15">
       <c r="A16" s="1">
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2">
         <v>20900</v>
@@ -2123,7 +2101,7 @@
         <v>1</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2132,16 +2110,16 @@
       <c r="M16" s="1">
         <v>0</v>
       </c>
-      <c r="N16" s="1">
+      <c r="O16" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="17" customHeight="1" spans="1:14">
+    <row r="17" customHeight="1" spans="1:15">
       <c r="A17" s="1">
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C17" s="2">
         <v>20812</v>
@@ -2159,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2168,16 +2146,16 @@
       <c r="M17" s="1">
         <v>0</v>
       </c>
-      <c r="N17" s="1">
+      <c r="O17" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="1:14">
+    <row r="18" customHeight="1" spans="1:15">
       <c r="A18" s="1">
         <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C18" s="2">
         <v>22574</v>
@@ -2195,27 +2173,25 @@
         <v>1</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
-      <c r="L18" s="2">
-        <v>8</v>
-      </c>
+      <c r="L18" s="2"/>
       <c r="M18" s="1">
         <v>0</v>
       </c>
-      <c r="N18" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:14">
+      <c r="O18" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:15">
       <c r="A19" s="1">
         <v>15</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2">
         <v>24300</v>
@@ -2233,7 +2209,7 @@
         <v>1</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2242,16 +2218,16 @@
       <c r="M19" s="1">
         <v>0</v>
       </c>
-      <c r="N19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:14">
+      <c r="O19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:15">
       <c r="A20" s="1">
         <v>16</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C20" s="2">
         <v>20949</v>
@@ -2269,7 +2245,7 @@
         <v>1</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2278,16 +2254,16 @@
       <c r="M20" s="1">
         <v>0</v>
       </c>
-      <c r="N20" s="1">
+      <c r="O20" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:14">
+    <row r="21" customHeight="1" spans="1:15">
       <c r="A21" s="1">
         <v>17</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C21" s="2">
         <v>23169</v>
@@ -2305,7 +2281,7 @@
         <v>1</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2314,16 +2290,16 @@
       <c r="M21" s="1">
         <v>0</v>
       </c>
-      <c r="N21" s="1">
+      <c r="O21" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:14">
+    <row r="22" customHeight="1" spans="1:15">
       <c r="A22" s="1">
         <v>18</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C22" s="2">
         <v>22460</v>
@@ -2341,27 +2317,25 @@
         <v>1</v>
       </c>
       <c r="H22" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
-      <c r="L22" s="2">
-        <v>8</v>
-      </c>
+      <c r="L22" s="2"/>
       <c r="M22" s="1">
         <v>0</v>
       </c>
-      <c r="N22" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:14">
+      <c r="O22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:15">
       <c r="A23" s="1">
         <v>19</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C23" s="2">
         <v>25450</v>
@@ -2379,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -2388,16 +2362,16 @@
       <c r="M23" s="1">
         <v>0</v>
       </c>
-      <c r="N23" s="1">
+      <c r="O23" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:14">
+    <row r="24" customHeight="1" spans="1:15">
       <c r="A24" s="1">
         <v>20</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C24" s="2">
         <v>23465</v>
@@ -2415,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2424,16 +2398,16 @@
       <c r="M24" s="1">
         <v>0</v>
       </c>
-      <c r="N24" s="1">
+      <c r="O24" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:14">
+    <row r="25" customHeight="1" spans="1:15">
       <c r="A25" s="1">
         <v>21</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C25" s="2">
         <v>25455</v>
@@ -2451,7 +2425,7 @@
         <v>1</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -2460,16 +2434,16 @@
       <c r="M25" s="1">
         <v>0</v>
       </c>
-      <c r="N25" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:14">
+      <c r="O25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:15">
       <c r="A26" s="1">
         <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C26" s="2">
         <v>24386</v>
@@ -2487,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -2496,16 +2470,16 @@
       <c r="M26" s="1">
         <v>0</v>
       </c>
-      <c r="N26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:14">
+      <c r="O26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:15">
       <c r="A27" s="1">
         <v>23</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C27" s="2">
         <v>24082</v>
@@ -2523,7 +2497,7 @@
         <v>1</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -2532,16 +2506,16 @@
       <c r="M27" s="1">
         <v>0</v>
       </c>
-      <c r="N27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:14">
+      <c r="O27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:15">
       <c r="A28" s="1">
         <v>24</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2">
         <v>24141</v>
@@ -2559,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -2568,16 +2542,16 @@
       <c r="M28" s="1">
         <v>0</v>
       </c>
-      <c r="N28" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:14">
+      <c r="O28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:15">
       <c r="A29" s="1">
         <v>25</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C29" s="2">
         <v>23168</v>
@@ -2595,27 +2569,25 @@
         <v>1</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="2">
-        <v>8</v>
-      </c>
+      <c r="L29" s="2"/>
       <c r="M29" s="1">
         <v>0</v>
       </c>
-      <c r="N29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:14">
+      <c r="O29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:15">
       <c r="A30" s="1">
         <v>26</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C30" s="2">
         <v>27077</v>
@@ -2633,7 +2605,7 @@
         <v>1</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
@@ -2642,16 +2614,16 @@
       <c r="M30" s="1">
         <v>0</v>
       </c>
-      <c r="N30" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:14">
+      <c r="O30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:15">
       <c r="A31" s="1">
         <v>27</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C31" s="2">
         <v>22115</v>
@@ -2669,7 +2641,7 @@
         <v>1</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -2678,16 +2650,16 @@
       <c r="M31" s="1">
         <v>0</v>
       </c>
-      <c r="N31" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:14">
+      <c r="O31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:15">
       <c r="A32" s="1">
         <v>28</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2">
         <v>22228</v>
@@ -2705,27 +2677,25 @@
         <v>1</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="2">
-        <v>33</v>
-      </c>
+      <c r="L32" s="2"/>
       <c r="M32" s="1">
         <v>0</v>
       </c>
-      <c r="N32" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:14">
+      <c r="O32" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:15">
       <c r="A33" s="1">
         <v>29</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C33" s="2">
         <v>21500</v>
@@ -2743,27 +2713,25 @@
         <v>1</v>
       </c>
       <c r="H33" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="2">
-        <v>2</v>
-      </c>
+      <c r="L33" s="2"/>
       <c r="M33" s="1">
         <v>0</v>
       </c>
-      <c r="N33" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:14">
+      <c r="O33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:15">
       <c r="A34" s="1">
         <v>30</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C34" s="2">
         <v>22120</v>
@@ -2781,27 +2749,25 @@
         <v>1</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="2">
-        <v>2</v>
-      </c>
+      <c r="L34" s="2"/>
       <c r="M34" s="1">
         <v>0</v>
       </c>
-      <c r="N34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:14">
+      <c r="O34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:15">
       <c r="A35" s="1">
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C35" s="2">
         <v>20800</v>
@@ -2819,7 +2785,7 @@
         <v>1</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -2828,16 +2794,16 @@
       <c r="M35" s="1">
         <v>0</v>
       </c>
-      <c r="N35" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:14">
+      <c r="O35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:15">
       <c r="A36" s="1">
         <v>32</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C36" s="2">
         <v>21880</v>
@@ -2855,27 +2821,25 @@
         <v>1</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="2">
-        <v>2</v>
-      </c>
+      <c r="L36" s="2"/>
       <c r="M36" s="1">
         <v>0</v>
       </c>
-      <c r="N36" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:14">
+      <c r="O36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:15">
       <c r="A37" s="1">
         <v>33</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C37" s="2">
         <v>21520</v>
@@ -2893,27 +2857,25 @@
         <v>1</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="2">
-        <v>2</v>
-      </c>
+      <c r="L37" s="2"/>
       <c r="M37" s="1">
         <v>0</v>
       </c>
-      <c r="N37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:14">
+      <c r="O37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:15">
       <c r="A38" s="1">
         <v>34</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C38" s="2">
         <v>21489</v>
@@ -2931,27 +2893,25 @@
         <v>1</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="2">
-        <v>2</v>
-      </c>
+      <c r="L38" s="2"/>
       <c r="M38" s="1">
         <v>0</v>
       </c>
-      <c r="N38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" customHeight="1" spans="1:14">
+      <c r="O38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="1:15">
       <c r="A39" s="1">
         <v>35</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2">
         <v>23550</v>
@@ -2969,27 +2929,25 @@
         <v>1</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="2">
-        <v>8</v>
-      </c>
+      <c r="L39" s="2"/>
       <c r="M39" s="1">
         <v>0</v>
       </c>
-      <c r="N39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:14">
+      <c r="O39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:15">
       <c r="A40" s="1">
         <v>36</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2">
         <v>21980</v>
@@ -3007,27 +2965,25 @@
         <v>1</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="2">
-        <v>2</v>
-      </c>
+      <c r="L40" s="2"/>
       <c r="M40" s="1">
         <v>0</v>
       </c>
-      <c r="N40" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" customHeight="1" spans="1:14">
+      <c r="O40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:15">
       <c r="A41" s="1">
         <v>37</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2">
         <v>23150</v>
@@ -3045,27 +3001,25 @@
         <v>1</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="2">
-        <v>2</v>
-      </c>
+      <c r="L41" s="2"/>
       <c r="M41" s="1">
         <v>0</v>
       </c>
-      <c r="N41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" customHeight="1" spans="1:14">
+      <c r="O41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:15">
       <c r="A42" s="1">
         <v>38</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2">
         <v>21540</v>
@@ -3083,27 +3037,25 @@
         <v>1</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="2">
-        <v>2</v>
-      </c>
+      <c r="L42" s="2"/>
       <c r="M42" s="1">
         <v>0</v>
       </c>
-      <c r="N42" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:14">
+      <c r="O42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:15">
       <c r="A43" s="1">
         <v>39</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C43" s="2">
         <v>21855</v>
@@ -3121,27 +3073,25 @@
         <v>1</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
-      <c r="L43" s="2">
-        <v>2</v>
-      </c>
+      <c r="L43" s="2"/>
       <c r="M43" s="1">
         <v>0</v>
       </c>
-      <c r="N43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:14">
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:15">
       <c r="A44" s="1">
         <v>40</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C44" s="2">
         <v>21885</v>
@@ -3159,27 +3109,25 @@
         <v>1</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
       <c r="K44" s="2"/>
-      <c r="L44" s="2">
-        <v>2</v>
-      </c>
+      <c r="L44" s="2"/>
       <c r="M44" s="1">
         <v>0</v>
       </c>
-      <c r="N44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:14">
+      <c r="O44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" customHeight="1" spans="1:15">
       <c r="A45" s="1">
         <v>41</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C45" s="2">
         <v>21543</v>
@@ -3197,27 +3145,25 @@
         <v>1</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
       <c r="K45" s="2"/>
-      <c r="L45" s="2">
-        <v>2</v>
-      </c>
+      <c r="L45" s="2"/>
       <c r="M45" s="1">
         <v>0</v>
       </c>
-      <c r="N45" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:14">
+      <c r="O45" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:15">
       <c r="A46" s="1">
         <v>42</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C46" s="2">
         <v>21557</v>
@@ -3235,27 +3181,25 @@
         <v>1</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
       <c r="K46" s="2"/>
-      <c r="L46" s="2">
-        <v>2</v>
-      </c>
+      <c r="L46" s="2"/>
       <c r="M46" s="1">
         <v>0</v>
       </c>
-      <c r="N46" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:14">
+      <c r="O46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" customHeight="1" spans="1:15">
       <c r="A47" s="1">
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C47" s="2">
         <v>21748</v>
@@ -3273,27 +3217,25 @@
         <v>1</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
       <c r="K47" s="2"/>
-      <c r="L47" s="2">
-        <v>2</v>
-      </c>
+      <c r="L47" s="2"/>
       <c r="M47" s="1">
         <v>0</v>
       </c>
-      <c r="N47" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:14">
+      <c r="O47" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:15">
       <c r="A48" s="1">
         <v>44</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C48" s="2">
         <v>21748</v>
@@ -3311,27 +3253,25 @@
         <v>1</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
       <c r="K48" s="2"/>
-      <c r="L48" s="2">
-        <v>2</v>
-      </c>
+      <c r="L48" s="2"/>
       <c r="M48" s="1">
         <v>0</v>
       </c>
-      <c r="N48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:14">
+      <c r="O48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" customHeight="1" spans="1:15">
       <c r="A49" s="1">
         <v>45</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C49" s="2">
         <v>21896</v>
@@ -3349,27 +3289,25 @@
         <v>1</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
       <c r="K49" s="2"/>
-      <c r="L49" s="2">
-        <v>2</v>
-      </c>
+      <c r="L49" s="2"/>
       <c r="M49" s="1">
         <v>0</v>
       </c>
-      <c r="N49" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:14">
+      <c r="O49" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:15">
       <c r="A50" s="1">
         <v>46</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C50" s="2">
         <v>22033</v>
@@ -3387,27 +3325,25 @@
         <v>1</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
-      <c r="L50" s="2">
-        <v>2</v>
-      </c>
+      <c r="L50" s="2"/>
       <c r="M50" s="1">
         <v>0</v>
       </c>
-      <c r="N50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:14">
+      <c r="O50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" customHeight="1" spans="1:15">
       <c r="A51" s="1">
         <v>47</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C51" s="2">
         <v>20878</v>
@@ -3425,7 +3361,7 @@
         <v>1</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -3434,16 +3370,16 @@
       <c r="M51" s="1">
         <v>0</v>
       </c>
-      <c r="N51" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:14">
+      <c r="O51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:15">
       <c r="A52" s="1">
         <v>48</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C52" s="2">
         <v>20820</v>
@@ -3461,27 +3397,25 @@
         <v>1</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
       <c r="K52" s="2"/>
-      <c r="L52" s="2">
-        <v>54</v>
-      </c>
+      <c r="L52" s="2"/>
       <c r="M52" s="1">
         <v>0</v>
       </c>
-      <c r="N52" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:14">
+      <c r="O52" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" customHeight="1" spans="1:15">
       <c r="A53" s="1">
         <v>49</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C53" s="2">
         <v>20883</v>
@@ -3499,27 +3433,25 @@
         <v>1</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
       <c r="K53" s="2"/>
-      <c r="L53" s="2">
-        <v>54</v>
-      </c>
+      <c r="L53" s="2"/>
       <c r="M53" s="1">
         <v>0</v>
       </c>
-      <c r="N53" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:14">
+      <c r="O53" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:15">
       <c r="A54" s="1">
         <v>50</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C54" s="2">
         <v>20880</v>
@@ -3537,27 +3469,25 @@
         <v>1</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
-      <c r="L54" s="2">
-        <v>54</v>
-      </c>
+      <c r="L54" s="2"/>
       <c r="M54" s="1">
         <v>0</v>
       </c>
-      <c r="N54" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" customHeight="1" spans="1:14">
+      <c r="O54" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" customHeight="1" spans="1:15">
       <c r="A55" s="1">
         <v>51</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C55" s="2">
         <v>20839</v>
@@ -3575,27 +3505,25 @@
         <v>1</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
       <c r="K55" s="2"/>
-      <c r="L55" s="2">
-        <v>54</v>
-      </c>
+      <c r="L55" s="2"/>
       <c r="M55" s="1">
         <v>0</v>
       </c>
-      <c r="N55" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" customHeight="1" spans="1:14">
+      <c r="O55" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" customHeight="1" spans="1:15">
       <c r="A56" s="1">
         <v>52</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C56" s="2">
         <v>20844</v>
@@ -3613,27 +3541,25 @@
         <v>1</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
       <c r="K56" s="2"/>
-      <c r="L56" s="2">
-        <v>54</v>
-      </c>
+      <c r="L56" s="2"/>
       <c r="M56" s="1">
         <v>0</v>
       </c>
-      <c r="N56" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="57" customHeight="1" spans="1:14">
+      <c r="O56" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" customHeight="1" spans="1:15">
       <c r="A57" s="1">
         <v>53</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C57" s="2">
         <v>20932</v>
@@ -3651,27 +3577,25 @@
         <v>1</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
       <c r="K57" s="2"/>
-      <c r="L57" s="2">
-        <v>54</v>
-      </c>
+      <c r="L57" s="2"/>
       <c r="M57" s="1">
         <v>0</v>
       </c>
-      <c r="N57" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" customHeight="1" spans="1:14">
+      <c r="O57" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" customHeight="1" spans="1:15">
       <c r="A58" s="1">
         <v>54</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C58" s="2">
         <v>22994</v>
@@ -3689,27 +3613,25 @@
         <v>1</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
       <c r="K58" s="2"/>
-      <c r="L58" s="2">
-        <v>54</v>
-      </c>
+      <c r="L58" s="2"/>
       <c r="M58" s="1">
         <v>0</v>
       </c>
-      <c r="N58" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" customHeight="1" spans="1:14">
+      <c r="O58" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" customHeight="1" spans="1:15">
       <c r="A59" s="1">
         <v>55</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C59" s="2">
         <v>23004</v>
@@ -3727,27 +3649,25 @@
         <v>1</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
       <c r="K59" s="2"/>
-      <c r="L59" s="2">
-        <v>54</v>
-      </c>
+      <c r="L59" s="2"/>
       <c r="M59" s="1">
         <v>0</v>
       </c>
-      <c r="N59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" customHeight="1" spans="1:14">
+      <c r="O59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" customHeight="1" spans="1:15">
       <c r="A60" s="1">
         <v>56</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C60" s="2">
         <v>23045</v>
@@ -3765,27 +3685,25 @@
         <v>1</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
       <c r="K60" s="2"/>
-      <c r="L60" s="2">
-        <v>54</v>
-      </c>
+      <c r="L60" s="2"/>
       <c r="M60" s="1">
         <v>0</v>
       </c>
-      <c r="N60" s="1">
+      <c r="O60" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:14">
+    <row r="61" customHeight="1" spans="1:15">
       <c r="A61" s="1">
         <v>57</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C61" s="2">
         <v>22769</v>
@@ -3803,27 +3721,25 @@
         <v>1</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
       <c r="K61" s="2"/>
-      <c r="L61" s="2">
-        <v>54</v>
-      </c>
+      <c r="L61" s="2"/>
       <c r="M61" s="1">
         <v>0</v>
       </c>
-      <c r="N61" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" customHeight="1" spans="1:14">
+      <c r="O61" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" customHeight="1" spans="1:15">
       <c r="A62" s="1">
         <v>58</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C62" s="2">
         <v>23152</v>
@@ -3841,27 +3757,25 @@
         <v>1</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
       <c r="K62" s="2"/>
-      <c r="L62" s="2">
-        <v>54</v>
-      </c>
+      <c r="L62" s="2"/>
       <c r="M62" s="1">
         <v>0</v>
       </c>
-      <c r="N62" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" customHeight="1" spans="1:14">
+      <c r="O62" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" customHeight="1" spans="1:15">
       <c r="A63" s="1">
         <v>59</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C63" s="2">
         <v>23050</v>
@@ -3879,27 +3793,25 @@
         <v>1</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
       <c r="K63" s="2"/>
-      <c r="L63" s="2">
-        <v>2</v>
-      </c>
+      <c r="L63" s="2"/>
       <c r="M63" s="1">
         <v>0</v>
       </c>
-      <c r="N63" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="64" customHeight="1" spans="1:14">
+      <c r="O63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" customHeight="1" spans="1:15">
       <c r="A64" s="1">
         <v>60</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C64" s="2">
         <v>23260</v>
@@ -3917,27 +3829,25 @@
         <v>1</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
       <c r="K64" s="2"/>
-      <c r="L64" s="2">
-        <v>2</v>
-      </c>
+      <c r="L64" s="2"/>
       <c r="M64" s="1">
         <v>0</v>
       </c>
-      <c r="N64" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" customHeight="1" spans="1:14">
+      <c r="O64" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" customHeight="1" spans="1:15">
       <c r="A65" s="1">
         <v>61</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C65" s="2">
         <v>24369</v>
@@ -3955,27 +3865,25 @@
         <v>1</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
       <c r="K65" s="2"/>
-      <c r="L65" s="2">
-        <v>130</v>
-      </c>
+      <c r="L65" s="2"/>
       <c r="M65" s="1">
         <v>0</v>
       </c>
-      <c r="N65" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" customHeight="1" spans="1:14">
+      <c r="O65" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" customHeight="1" spans="1:15">
       <c r="A66" s="1">
         <v>62</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C66" s="2">
         <v>20916</v>
@@ -3993,27 +3901,25 @@
         <v>1</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
-      <c r="L66" s="2">
-        <v>2</v>
-      </c>
+      <c r="L66" s="2"/>
       <c r="M66" s="1">
         <v>0</v>
       </c>
-      <c r="N66" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="67" customHeight="1" spans="1:14">
+      <c r="O66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" customHeight="1" spans="1:15">
       <c r="A67" s="1">
         <v>63</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C67" s="2">
         <v>20861</v>
@@ -4031,27 +3937,25 @@
         <v>1</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
       <c r="K67" s="2"/>
-      <c r="L67" s="2">
-        <v>2</v>
-      </c>
+      <c r="L67" s="2"/>
       <c r="M67" s="1">
         <v>0</v>
       </c>
-      <c r="N67" s="1">
+      <c r="O67" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:14">
+    <row r="68" customHeight="1" spans="1:15">
       <c r="A68" s="1">
         <v>64</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C68" s="2">
         <v>23847</v>
@@ -4069,7 +3973,7 @@
         <v>1</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -4078,16 +3982,16 @@
       <c r="M68" s="1">
         <v>0</v>
       </c>
-      <c r="N68" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" customHeight="1" spans="1:14">
+      <c r="O68" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" customHeight="1" spans="1:15">
       <c r="A69" s="1">
         <v>65</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C69" s="2">
         <v>22836</v>
@@ -4105,27 +4009,25 @@
         <v>1</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
       <c r="K69" s="2"/>
-      <c r="L69" s="2">
-        <v>8</v>
-      </c>
+      <c r="L69" s="2"/>
       <c r="M69" s="1">
         <v>0</v>
       </c>
-      <c r="N69" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="70" customHeight="1" spans="1:14">
+      <c r="O69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" customHeight="1" spans="1:15">
       <c r="A70" s="1">
         <v>66</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C70" s="2">
         <v>22881</v>
@@ -4143,27 +4045,25 @@
         <v>1</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
       <c r="K70" s="2"/>
-      <c r="L70" s="2">
-        <v>8</v>
-      </c>
+      <c r="L70" s="2"/>
       <c r="M70" s="1">
         <v>0</v>
       </c>
-      <c r="N70" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="71" customHeight="1" spans="1:14">
+      <c r="O70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" customHeight="1" spans="1:15">
       <c r="A71" s="1">
         <v>67</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C71" s="2">
         <v>22744</v>
@@ -4181,27 +4081,25 @@
         <v>1</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
       <c r="K71" s="2"/>
-      <c r="L71" s="2">
-        <v>2</v>
-      </c>
+      <c r="L71" s="2"/>
       <c r="M71" s="1">
         <v>0</v>
       </c>
-      <c r="N71" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" customHeight="1" spans="1:14">
+      <c r="O71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" customHeight="1" spans="1:15">
       <c r="A72" s="1">
         <v>68</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C72" s="2">
         <v>20841</v>
@@ -4219,27 +4117,25 @@
         <v>1</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
       <c r="K72" s="2"/>
-      <c r="L72" s="2">
-        <v>2</v>
-      </c>
+      <c r="L72" s="2"/>
       <c r="M72" s="1">
         <v>0</v>
       </c>
-      <c r="N72" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="73" customHeight="1" spans="1:14">
+      <c r="O72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" customHeight="1" spans="1:15">
       <c r="A73" s="1">
         <v>69</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C73" s="2">
         <v>23990</v>
@@ -4257,7 +4153,7 @@
         <v>1</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
@@ -4266,16 +4162,16 @@
       <c r="M73" s="1">
         <v>0</v>
       </c>
-      <c r="N73" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" customHeight="1" spans="1:14">
+      <c r="O73" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" customHeight="1" spans="1:15">
       <c r="A74" s="1">
         <v>70</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C74" s="2">
         <v>24479</v>
@@ -4293,7 +4189,7 @@
         <v>1</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -4302,16 +4198,16 @@
       <c r="M74" s="1">
         <v>0</v>
       </c>
-      <c r="N74" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" customHeight="1" spans="1:14">
+      <c r="O74" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" customHeight="1" spans="1:15">
       <c r="A75" s="1">
         <v>71</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C75" s="2">
         <v>21156</v>
@@ -4329,7 +4225,7 @@
         <v>1</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -4338,16 +4234,16 @@
       <c r="M75" s="1">
         <v>0</v>
       </c>
-      <c r="N75" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" customHeight="1" spans="1:14">
+      <c r="O75" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" customHeight="1" spans="1:15">
       <c r="A76" s="1">
         <v>72</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C76" s="2">
         <v>25000</v>
@@ -4365,7 +4261,7 @@
         <v>1</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
@@ -4374,16 +4270,16 @@
       <c r="M76" s="1">
         <v>0</v>
       </c>
-      <c r="N76" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" customHeight="1" spans="1:14">
+      <c r="O76" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" customHeight="1" spans="1:15">
       <c r="A77" s="1">
         <v>73</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C77" s="2">
         <v>20838</v>
@@ -4401,7 +4297,7 @@
         <v>1</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -4410,7 +4306,7 @@
       <c r="M77" s="1">
         <v>0</v>
       </c>
-      <c r="N77" s="1">
+      <c r="O77" s="1">
         <v>1</v>
       </c>
     </row>
@@ -4419,7 +4315,7 @@
         <v>74</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C78" s="2">
         <v>24097</v>
@@ -4434,7 +4330,7 @@
         <v>37353</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -4446,22 +4342,22 @@
         <v>75</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C79" s="2">
-        <v>22645</v>
+        <v>25754</v>
       </c>
       <c r="D79" s="2">
-        <v>34082</v>
+        <v>25805</v>
       </c>
       <c r="E79" s="2">
-        <v>22647</v>
+        <v>25756</v>
       </c>
       <c r="F79" s="2">
-        <v>34092</v>
+        <v>25807</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
@@ -4473,22 +4369,22 @@
         <v>76</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C80" s="2">
-        <v>21153</v>
+        <v>25557</v>
       </c>
       <c r="D80" s="2">
-        <v>30857</v>
+        <v>25437</v>
       </c>
       <c r="E80" s="2">
-        <v>21156</v>
+        <v>25561</v>
       </c>
       <c r="F80" s="2">
-        <v>30859</v>
+        <v>25441</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -4500,22 +4396,22 @@
         <v>77</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C81" s="2">
-        <v>21176</v>
+        <v>25754</v>
       </c>
       <c r="D81" s="2">
-        <v>30901</v>
+        <v>25155</v>
       </c>
       <c r="E81" s="2">
-        <v>21178</v>
+        <v>25756</v>
       </c>
       <c r="F81" s="2">
-        <v>30903</v>
+        <v>25157</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -4527,265 +4423,286 @@
         <v>78</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C82" s="2">
-        <v>21790</v>
+        <v>25558</v>
       </c>
       <c r="D82" s="2">
-        <v>30864</v>
+        <v>24786</v>
       </c>
       <c r="E82" s="2">
-        <v>21794</v>
+        <v>25562</v>
       </c>
       <c r="F82" s="2">
-        <v>30868</v>
+        <v>24790</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
       <c r="K82" s="2"/>
       <c r="L82" s="2"/>
     </row>
-    <row r="83" customHeight="1" spans="1:12">
+    <row r="83" customHeight="1" spans="1:14">
       <c r="A83" s="1">
         <v>79</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C83" s="2">
-        <v>21154</v>
+        <v>22425</v>
       </c>
       <c r="D83" s="2">
-        <v>31482</v>
+        <v>31460</v>
       </c>
       <c r="E83" s="2">
-        <v>21156</v>
+        <v>22480</v>
       </c>
       <c r="F83" s="2">
-        <v>31484</v>
+        <v>31595</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
       <c r="K83" s="2"/>
       <c r="L83" s="2"/>
-    </row>
-    <row r="84" customHeight="1" spans="1:12">
+      <c r="N83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" customHeight="1" spans="1:14">
       <c r="A84" s="1">
         <v>80</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C84" s="2">
-        <v>21188</v>
+        <v>21775</v>
       </c>
       <c r="D84" s="2">
-        <v>31542</v>
+        <v>31482</v>
       </c>
       <c r="E84" s="2">
-        <v>21190</v>
+        <v>21822</v>
       </c>
       <c r="F84" s="2">
-        <v>31544</v>
+        <v>31580</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
-    </row>
-    <row r="85" customHeight="1" spans="1:12">
+      <c r="N84" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" customHeight="1" spans="1:14">
       <c r="A85" s="1">
         <v>81</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C85" s="2">
-        <v>21154</v>
+        <v>23730</v>
       </c>
       <c r="D85" s="2">
-        <v>31562</v>
+        <v>31518</v>
       </c>
       <c r="E85" s="2">
-        <v>21156</v>
+        <v>23760</v>
       </c>
       <c r="F85" s="2">
-        <v>31564</v>
+        <v>31547</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
-    </row>
-    <row r="86" customHeight="1" spans="1:12">
+      <c r="N85" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" customHeight="1" spans="1:14">
       <c r="A86" s="1">
         <v>82</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C86" s="2">
-        <v>21119</v>
+        <v>23025</v>
       </c>
       <c r="D86" s="2">
-        <v>31502</v>
+        <v>31538</v>
       </c>
       <c r="E86" s="2">
-        <v>21121</v>
+        <v>23186</v>
       </c>
       <c r="F86" s="2">
-        <v>31504</v>
+        <v>31566</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
       <c r="K86" s="2"/>
       <c r="L86" s="2"/>
-    </row>
-    <row r="87" customHeight="1" spans="1:12">
+      <c r="N86" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" customHeight="1" spans="1:14">
       <c r="A87" s="1">
         <v>83</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C87" s="2">
-        <v>25754</v>
+        <v>21110</v>
       </c>
       <c r="D87" s="2">
-        <v>25805</v>
+        <v>31475</v>
       </c>
       <c r="E87" s="2">
-        <v>25756</v>
+        <v>21200</v>
       </c>
       <c r="F87" s="2">
-        <v>25807</v>
+        <v>31570</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
-    </row>
-    <row r="88" customHeight="1" spans="1:12">
+      <c r="N87" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="1" customHeight="1" spans="1:12">
       <c r="A88" s="1">
         <v>84</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C88" s="2">
-        <v>25557</v>
-      </c>
-      <c r="D88" s="2">
-        <v>25437</v>
-      </c>
-      <c r="E88" s="2">
-        <v>25561</v>
-      </c>
-      <c r="F88" s="2">
-        <v>25441</v>
+        <v>132</v>
+      </c>
+      <c r="C88" s="1">
+        <v>21779</v>
+      </c>
+      <c r="D88" s="1">
+        <v>30865</v>
+      </c>
+      <c r="E88" s="1">
+        <v>21805</v>
+      </c>
+      <c r="F88" s="1">
+        <v>30897</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" customHeight="1" spans="1:12">
+    <row r="89" customHeight="1" spans="1:13">
       <c r="A89" s="1">
         <v>85</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C89" s="2">
-        <v>25754</v>
+        <v>22107</v>
       </c>
       <c r="D89" s="2">
-        <v>25155</v>
+        <v>33812</v>
       </c>
       <c r="E89" s="2">
-        <v>25756</v>
+        <v>24705</v>
       </c>
       <c r="F89" s="2">
-        <v>25157</v>
+        <v>36410</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
-    </row>
-    <row r="90" customHeight="1" spans="1:12">
+      <c r="M89" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" customHeight="1" spans="1:13">
       <c r="A90" s="1">
         <v>86</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C90" s="2">
-        <v>25558</v>
+        <v>20807</v>
       </c>
       <c r="D90" s="2">
-        <v>24786</v>
+        <v>24712</v>
       </c>
       <c r="E90" s="2">
-        <v>25562</v>
+        <v>23405</v>
       </c>
       <c r="F90" s="2">
-        <v>24790</v>
+        <v>27310</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
       <c r="L90" s="2"/>
+      <c r="M90" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="91" customHeight="1" spans="1:12">
       <c r="A91" s="1">
         <v>87</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C91" s="2">
-        <v>22425</v>
+        <v>20807</v>
       </c>
       <c r="D91" s="2">
-        <v>31460</v>
+        <v>35112</v>
       </c>
       <c r="E91" s="2">
-        <v>22480</v>
+        <v>22105</v>
       </c>
       <c r="F91" s="2">
-        <v>31595</v>
+        <v>36410</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
@@ -4797,22 +4714,22 @@
         <v>88</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C92" s="2">
-        <v>21775</v>
+        <v>24707</v>
       </c>
       <c r="D92" s="2">
-        <v>31482</v>
+        <v>33812</v>
       </c>
       <c r="E92" s="2">
-        <v>21822</v>
+        <v>27298</v>
       </c>
       <c r="F92" s="2">
-        <v>31580</v>
+        <v>36410</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
@@ -4824,22 +4741,22 @@
         <v>89</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C93" s="2">
-        <v>23730</v>
+        <v>20807</v>
       </c>
       <c r="D93" s="2">
-        <v>31518</v>
+        <v>27962</v>
       </c>
       <c r="E93" s="2">
-        <v>23760</v>
+        <v>21455</v>
       </c>
       <c r="F93" s="2">
-        <v>31547</v>
+        <v>29258</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
@@ -4851,22 +4768,22 @@
         <v>90</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C94" s="2">
-        <v>23025</v>
+        <v>21457</v>
       </c>
       <c r="D94" s="2">
-        <v>31538</v>
+        <v>27962</v>
       </c>
       <c r="E94" s="2">
-        <v>23186</v>
+        <v>22105</v>
       </c>
       <c r="F94" s="2">
-        <v>31566</v>
+        <v>28610</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
@@ -4878,51 +4795,49 @@
         <v>91</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C95" s="2">
-        <v>21110</v>
+        <v>22778</v>
       </c>
       <c r="D95" s="2">
-        <v>31475</v>
+        <v>28639</v>
       </c>
       <c r="E95" s="2">
-        <v>21200</v>
+        <v>23061</v>
       </c>
       <c r="F95" s="2">
-        <v>31570</v>
+        <v>28865</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
       <c r="K95" s="2"/>
-      <c r="L95" s="2">
-        <v>115</v>
-      </c>
+      <c r="L95" s="2"/>
     </row>
     <row r="96" customHeight="1" spans="1:12">
       <c r="A96" s="1">
         <v>92</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C96" s="2">
-        <v>22107</v>
+        <v>22645</v>
       </c>
       <c r="D96" s="2">
-        <v>33812</v>
+        <v>34052</v>
       </c>
       <c r="E96" s="2">
-        <v>24705</v>
+        <v>22758</v>
       </c>
       <c r="F96" s="2">
-        <v>36410</v>
+        <v>34116</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
@@ -4934,26 +4849,30 @@
         <v>93</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C97" s="2">
-        <v>20807</v>
+        <v>26040</v>
       </c>
       <c r="D97" s="2">
-        <v>24712</v>
+        <v>24910</v>
       </c>
       <c r="E97" s="2">
-        <v>23405</v>
+        <v>26985</v>
       </c>
       <c r="F97" s="2">
-        <v>27310</v>
+        <v>26000</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>50</v>
+        <v>63</v>
       </c>
       <c r="I97" s="2"/>
-      <c r="J97" s="2"/>
-      <c r="K97" s="2"/>
+      <c r="J97" s="2">
+        <v>1</v>
+      </c>
+      <c r="K97" s="2">
+        <v>2</v>
+      </c>
       <c r="L97" s="2"/>
     </row>
     <row r="98" customHeight="1" spans="1:12">
@@ -4961,26 +4880,30 @@
         <v>94</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C98" s="2">
-        <v>20807</v>
+        <v>26040</v>
       </c>
       <c r="D98" s="2">
-        <v>35112</v>
+        <v>24910</v>
       </c>
       <c r="E98" s="2">
-        <v>22105</v>
+        <v>26985</v>
       </c>
       <c r="F98" s="2">
-        <v>36410</v>
+        <v>26000</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I98" s="2"/>
-      <c r="J98" s="2"/>
-      <c r="K98" s="2"/>
+      <c r="J98" s="2">
+        <v>1</v>
+      </c>
+      <c r="K98" s="2">
+        <v>3</v>
+      </c>
       <c r="L98" s="2"/>
     </row>
     <row r="99" customHeight="1" spans="1:12">
@@ -4988,22 +4911,22 @@
         <v>95</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C99" s="2">
-        <v>24707</v>
+        <v>21140</v>
       </c>
       <c r="D99" s="2">
-        <v>33812</v>
+        <v>30858</v>
       </c>
       <c r="E99" s="2">
-        <v>27298</v>
+        <v>21190</v>
       </c>
       <c r="F99" s="2">
-        <v>36410</v>
+        <v>30950</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
@@ -5015,22 +4938,22 @@
         <v>96</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C100" s="2">
-        <v>20807</v>
+        <v>1</v>
       </c>
       <c r="D100" s="2">
-        <v>27962</v>
+        <v>1</v>
       </c>
       <c r="E100" s="2">
-        <v>21455</v>
+        <v>50000</v>
       </c>
       <c r="F100" s="2">
-        <v>29258</v>
+        <v>50000</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
@@ -5042,22 +4965,22 @@
         <v>97</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C101" s="2">
-        <v>21457</v>
+        <v>22630</v>
       </c>
       <c r="D101" s="2">
-        <v>27962</v>
+        <v>34460</v>
       </c>
       <c r="E101" s="2">
-        <v>22105</v>
+        <v>22680</v>
       </c>
       <c r="F101" s="2">
-        <v>28610</v>
+        <v>34490</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
@@ -5069,22 +4992,22 @@
         <v>98</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C102" s="2">
-        <v>22778</v>
+        <v>22109</v>
       </c>
       <c r="D102" s="2">
-        <v>28639</v>
+        <v>37359</v>
       </c>
       <c r="E102" s="2">
-        <v>23061</v>
+        <v>22710</v>
       </c>
       <c r="F102" s="2">
-        <v>28865</v>
+        <v>37700</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
@@ -5096,22 +5019,22 @@
         <v>99</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C103" s="2">
-        <v>22645</v>
+        <v>22769</v>
       </c>
       <c r="D103" s="2">
-        <v>34052</v>
+        <v>28633</v>
       </c>
       <c r="E103" s="2">
-        <v>22758</v>
+        <v>23064</v>
       </c>
       <c r="F103" s="2">
-        <v>34116</v>
+        <v>28895</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
@@ -5123,30 +5046,26 @@
         <v>100</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C104" s="2">
-        <v>26040</v>
+        <v>23059</v>
       </c>
       <c r="D104" s="2">
-        <v>24910</v>
+        <v>28631</v>
       </c>
       <c r="E104" s="2">
-        <v>26985</v>
+        <v>23400</v>
       </c>
       <c r="F104" s="2">
-        <v>26000</v>
+        <v>28972</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="I104" s="2"/>
-      <c r="J104" s="2">
-        <v>1</v>
-      </c>
-      <c r="K104" s="2">
-        <v>2</v>
-      </c>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
       <c r="L104" s="2"/>
     </row>
     <row r="105" customHeight="1" spans="1:12">
@@ -5154,30 +5073,24 @@
         <v>101</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C105" s="2">
-        <v>26040</v>
+        <v>22360</v>
       </c>
       <c r="D105" s="2">
-        <v>24910</v>
+        <v>37534</v>
       </c>
       <c r="E105" s="2">
-        <v>26985</v>
+        <v>22362</v>
       </c>
       <c r="F105" s="2">
-        <v>26000</v>
-      </c>
-      <c r="H105" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>37536</v>
+      </c>
+      <c r="H105" s="2"/>
       <c r="I105" s="2"/>
-      <c r="J105" s="2">
-        <v>1</v>
-      </c>
-      <c r="K105" s="2">
-        <v>3</v>
-      </c>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
       <c r="L105" s="2"/>
     </row>
     <row r="106" customHeight="1" spans="1:12">
@@ -5185,109 +5098,101 @@
         <v>102</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C106" s="2">
-        <v>21140</v>
+        <v>22493</v>
       </c>
       <c r="D106" s="2">
-        <v>30858</v>
+        <v>37584</v>
       </c>
       <c r="E106" s="2">
-        <v>21190</v>
+        <v>22496</v>
       </c>
       <c r="F106" s="2">
-        <v>30950</v>
-      </c>
-      <c r="H106" s="2" t="s">
-        <v>61</v>
-      </c>
+        <v>37586</v>
+      </c>
+      <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
       <c r="K106" s="2"/>
-      <c r="L106" s="2">
-        <v>115</v>
-      </c>
+      <c r="L106" s="2"/>
     </row>
     <row r="107" customHeight="1" spans="1:12">
       <c r="A107" s="1">
         <v>103</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>37</v>
+        <v>153</v>
       </c>
       <c r="C107" s="2">
-        <v>1</v>
+        <v>23474</v>
       </c>
       <c r="D107" s="2">
-        <v>1</v>
+        <v>29980</v>
       </c>
       <c r="E107" s="2">
-        <v>50000</v>
+        <v>24011</v>
       </c>
       <c r="F107" s="2">
-        <v>50000</v>
+        <v>30454</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
       <c r="K107" s="2"/>
-      <c r="L107" s="2">
-        <v>2</v>
-      </c>
+      <c r="L107" s="2"/>
     </row>
     <row r="108" customHeight="1" spans="1:12">
       <c r="A108" s="1">
         <v>104</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C108" s="2">
-        <v>22630</v>
+        <v>26673</v>
       </c>
       <c r="D108" s="2">
-        <v>34460</v>
+        <v>35789</v>
       </c>
       <c r="E108" s="2">
-        <v>22680</v>
+        <v>27237</v>
       </c>
       <c r="F108" s="2">
-        <v>34490</v>
+        <v>36361</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
       <c r="K108" s="2"/>
-      <c r="L108" s="2">
-        <v>2</v>
-      </c>
+      <c r="L108" s="2"/>
     </row>
     <row r="109" customHeight="1" spans="1:12">
       <c r="A109" s="1">
         <v>105</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C109" s="2">
-        <v>22109</v>
+        <v>27093</v>
       </c>
       <c r="D109" s="2">
-        <v>37359</v>
+        <v>34547</v>
       </c>
       <c r="E109" s="2">
-        <v>22710</v>
+        <v>27098</v>
       </c>
       <c r="F109" s="2">
-        <v>37700</v>
+        <v>34551</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
@@ -5299,22 +5204,22 @@
         <v>106</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C110" s="2">
-        <v>22769</v>
+        <v>27152</v>
       </c>
       <c r="D110" s="2">
-        <v>28633</v>
+        <v>34566</v>
       </c>
       <c r="E110" s="2">
-        <v>23064</v>
+        <v>27156</v>
       </c>
       <c r="F110" s="2">
-        <v>28895</v>
+        <v>34570</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
@@ -5326,50 +5231,50 @@
         <v>107</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C111" s="2">
-        <v>23059</v>
+        <v>27123</v>
       </c>
       <c r="D111" s="2">
-        <v>28631</v>
+        <v>34619</v>
       </c>
       <c r="E111" s="2">
-        <v>23400</v>
+        <v>27127</v>
       </c>
       <c r="F111" s="2">
-        <v>28972</v>
+        <v>34623</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
       <c r="K111" s="2"/>
-      <c r="L111" s="2">
-        <v>8</v>
-      </c>
+      <c r="L111" s="2"/>
     </row>
     <row r="112" customHeight="1" spans="1:12">
       <c r="A112" s="1">
         <v>108</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="C112" s="2">
-        <v>22360</v>
+        <v>1</v>
       </c>
       <c r="D112" s="2">
-        <v>37534</v>
+        <v>1</v>
       </c>
       <c r="E112" s="2">
-        <v>22362</v>
+        <v>50000</v>
       </c>
       <c r="F112" s="2">
-        <v>37536</v>
-      </c>
-      <c r="H112" s="2"/>
+        <v>50000</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
@@ -5380,21 +5285,23 @@
         <v>109</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C113" s="2">
-        <v>22493</v>
+        <v>22758</v>
       </c>
       <c r="D113" s="2">
-        <v>37584</v>
+        <v>37063</v>
       </c>
       <c r="E113" s="2">
-        <v>22496</v>
+        <v>23051</v>
       </c>
       <c r="F113" s="2">
-        <v>37586</v>
-      </c>
-      <c r="H113" s="2"/>
+        <v>37356</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
       <c r="K113" s="2"/>
@@ -5405,22 +5312,22 @@
         <v>110</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C114" s="2">
-        <v>23474</v>
+        <v>22895</v>
       </c>
       <c r="D114" s="2">
-        <v>29980</v>
+        <v>37105</v>
       </c>
       <c r="E114" s="2">
-        <v>24011</v>
+        <v>22897</v>
       </c>
       <c r="F114" s="2">
-        <v>30454</v>
+        <v>37107</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
@@ -5432,22 +5339,22 @@
         <v>111</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C115" s="2">
-        <v>26673</v>
+        <v>22820</v>
       </c>
       <c r="D115" s="2">
-        <v>35789</v>
+        <v>37294</v>
       </c>
       <c r="E115" s="2">
-        <v>27237</v>
+        <v>22880</v>
       </c>
       <c r="F115" s="2">
-        <v>36361</v>
+        <v>37362</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
@@ -5459,22 +5366,22 @@
         <v>112</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C116" s="2">
-        <v>27093</v>
+        <v>22889</v>
       </c>
       <c r="D116" s="2">
-        <v>34547</v>
+        <v>37310</v>
       </c>
       <c r="E116" s="2">
-        <v>27098</v>
+        <v>22933</v>
       </c>
       <c r="F116" s="2">
-        <v>34551</v>
+        <v>37352</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
@@ -5486,22 +5393,22 @@
         <v>113</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C117" s="2">
-        <v>27152</v>
+        <v>22958</v>
       </c>
       <c r="D117" s="2">
-        <v>34566</v>
+        <v>37295</v>
       </c>
       <c r="E117" s="2">
-        <v>27156</v>
+        <v>23038</v>
       </c>
       <c r="F117" s="2">
-        <v>34570</v>
+        <v>37355</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
@@ -5513,22 +5420,22 @@
         <v>114</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C118" s="2">
-        <v>27123</v>
+        <v>22784</v>
       </c>
       <c r="D118" s="2">
-        <v>34619</v>
+        <v>37088</v>
       </c>
       <c r="E118" s="2">
-        <v>27127</v>
+        <v>22842</v>
       </c>
       <c r="F118" s="2">
-        <v>34623</v>
+        <v>37135</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
@@ -5540,51 +5447,49 @@
         <v>115</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C119" s="2">
-        <v>21500</v>
+        <v>22875</v>
       </c>
       <c r="D119" s="2">
-        <v>26220</v>
+        <v>37082</v>
       </c>
       <c r="E119" s="2">
-        <v>21860</v>
+        <v>22965</v>
       </c>
       <c r="F119" s="2">
-        <v>26510</v>
+        <v>37171</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
       <c r="K119" s="2"/>
-      <c r="L119" s="2">
-        <v>2</v>
-      </c>
+      <c r="L119" s="2"/>
     </row>
     <row r="120" customHeight="1" spans="1:12">
       <c r="A120" s="1">
         <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C120" s="2">
-        <v>22115</v>
+        <v>22934</v>
       </c>
       <c r="D120" s="2">
-        <v>29920</v>
+        <v>37079</v>
       </c>
       <c r="E120" s="2">
-        <v>22750</v>
+        <v>23039</v>
       </c>
       <c r="F120" s="2">
-        <v>30555</v>
+        <v>37180</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
@@ -5596,317 +5501,31 @@
         <v>117</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C121" s="2">
-        <v>22228</v>
+        <v>22758</v>
       </c>
       <c r="D121" s="2">
-        <v>30130</v>
+        <v>37201</v>
       </c>
       <c r="E121" s="2">
-        <v>22461</v>
+        <v>22770</v>
       </c>
       <c r="F121" s="2">
-        <v>30352</v>
+        <v>37233</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" customHeight="1" spans="1:12">
-      <c r="A122" s="1">
-        <v>118</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="C122" s="2">
-        <v>1</v>
-      </c>
-      <c r="D122" s="2">
-        <v>1</v>
-      </c>
-      <c r="E122" s="2">
-        <v>50000</v>
-      </c>
-      <c r="F122" s="2">
-        <v>50000</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="I122" s="2"/>
-      <c r="J122" s="2"/>
-      <c r="K122" s="2"/>
-      <c r="L122" s="2"/>
-    </row>
-    <row r="123" customHeight="1" spans="1:12">
-      <c r="A123" s="1">
-        <v>119</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="C123" s="2">
-        <v>22758</v>
-      </c>
-      <c r="D123" s="2">
-        <v>37063</v>
-      </c>
-      <c r="E123" s="2">
-        <v>23051</v>
-      </c>
-      <c r="F123" s="2">
-        <v>37356</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I123" s="2"/>
-      <c r="J123" s="2"/>
-      <c r="K123" s="2"/>
-      <c r="L123" s="2"/>
-    </row>
-    <row r="124" customHeight="1" spans="1:12">
-      <c r="A124" s="1">
-        <v>120</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C124" s="2">
-        <v>22895</v>
-      </c>
-      <c r="D124" s="2">
-        <v>37105</v>
-      </c>
-      <c r="E124" s="2">
-        <v>22897</v>
-      </c>
-      <c r="F124" s="2">
-        <v>37107</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I124" s="2"/>
-      <c r="J124" s="2"/>
-      <c r="K124" s="2"/>
-      <c r="L124" s="2">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="125" customHeight="1" spans="1:12">
-      <c r="A125" s="1">
-        <v>121</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="C125" s="2">
-        <v>22820</v>
-      </c>
-      <c r="D125" s="2">
-        <v>37294</v>
-      </c>
-      <c r="E125" s="2">
-        <v>22880</v>
-      </c>
-      <c r="F125" s="2">
-        <v>37362</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I125" s="2"/>
-      <c r="J125" s="2"/>
-      <c r="K125" s="2"/>
-      <c r="L125" s="2">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="126" customHeight="1" spans="1:12">
-      <c r="A126" s="1">
-        <v>122</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C126" s="2">
-        <v>22889</v>
-      </c>
-      <c r="D126" s="2">
-        <v>37310</v>
-      </c>
-      <c r="E126" s="2">
-        <v>22933</v>
-      </c>
-      <c r="F126" s="2">
-        <v>37352</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I126" s="2"/>
-      <c r="J126" s="2"/>
-      <c r="K126" s="2"/>
-      <c r="L126" s="2">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="127" customHeight="1" spans="1:12">
-      <c r="A127" s="1">
-        <v>123</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C127" s="2">
-        <v>22958</v>
-      </c>
-      <c r="D127" s="2">
-        <v>37295</v>
-      </c>
-      <c r="E127" s="2">
-        <v>23038</v>
-      </c>
-      <c r="F127" s="2">
-        <v>37355</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I127" s="2"/>
-      <c r="J127" s="2"/>
-      <c r="K127" s="2"/>
-      <c r="L127" s="2">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="128" customHeight="1" spans="1:12">
-      <c r="A128" s="1">
-        <v>124</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C128" s="2">
-        <v>22784</v>
-      </c>
-      <c r="D128" s="2">
-        <v>37088</v>
-      </c>
-      <c r="E128" s="2">
-        <v>22842</v>
-      </c>
-      <c r="F128" s="2">
-        <v>37135</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I128" s="2"/>
-      <c r="J128" s="2"/>
-      <c r="K128" s="2"/>
-      <c r="L128" s="2">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="129" customHeight="1" spans="1:12">
-      <c r="A129" s="1">
-        <v>125</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C129" s="2">
-        <v>22875</v>
-      </c>
-      <c r="D129" s="2">
-        <v>37082</v>
-      </c>
-      <c r="E129" s="2">
-        <v>22965</v>
-      </c>
-      <c r="F129" s="2">
-        <v>37171</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I129" s="2"/>
-      <c r="J129" s="2"/>
-      <c r="K129" s="2"/>
-      <c r="L129" s="2">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="130" customHeight="1" spans="1:12">
-      <c r="A130" s="1">
-        <v>126</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="C130" s="2">
-        <v>22934</v>
-      </c>
-      <c r="D130" s="2">
-        <v>37079</v>
-      </c>
-      <c r="E130" s="2">
-        <v>23039</v>
-      </c>
-      <c r="F130" s="2">
-        <v>37180</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I130" s="2"/>
-      <c r="J130" s="2"/>
-      <c r="K130" s="2"/>
-      <c r="L130" s="2">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="131" customHeight="1" spans="1:12">
-      <c r="A131" s="1">
-        <v>127</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C131" s="2">
-        <v>22758</v>
-      </c>
-      <c r="D131" s="2">
-        <v>37201</v>
-      </c>
-      <c r="E131" s="2">
-        <v>22770</v>
-      </c>
-      <c r="F131" s="2">
-        <v>37233</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="I131" s="2"/>
-      <c r="J131" s="2"/>
-      <c r="K131" s="2"/>
-      <c r="L131" s="2">
-        <v>131</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A4:O131">
-    <sortState ref="A4:O131">
+  <autoFilter ref="A4:P121">
+    <sortState ref="A4:P121">
       <sortCondition ref="A4"/>
     </sortState>
     <extLst/>
